--- a/documents/ETS/IBM X-Force IR System Analysis Tracking Sheet IRXX-ABCD HOSTNAME v0.1.xlsx
+++ b/documents/ETS/IBM X-Force IR System Analysis Tracking Sheet IRXX-ABCD HOSTNAME v0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADAMSMUTNICKI\Documents\GitHub\DFIR-wiki\documents\ETS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B85E96-3639-4B4C-B520-A4CEDB855ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706FE8DA-A2BC-46E5-B388-6CFDDB0170AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="System Info" sheetId="3" r:id="rId1"/>
@@ -1098,6 +1098,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1116,15 +1125,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1133,6 +1133,120 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="78">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1650,211 +1764,6 @@
       <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="&quot;Enter Valuer Here&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDA1E28"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <border>
         <top style="medium">
           <color rgb="FF393939"/>
@@ -1878,6 +1787,17 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FF393939"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="&quot;Enter Valuer Here&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDA1E28"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2340,38 +2260,43 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
         <color theme="0"/>
-        <name val="IBM Plex Sans"/>
-        <family val="2"/>
-        <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF393939"/>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color rgb="FF393939"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF393939"/>
-        </bottom>
-      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2608,9 +2533,7 @@
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color rgb="FF393939"/>
-        </left>
+        <left/>
         <right/>
         <top style="medium">
           <color rgb="FF393939"/>
@@ -2619,9 +2542,6 @@
           <color rgb="FF393939"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
     </dxf>
     <dxf>
       <font>
@@ -2664,6 +2584,46 @@
       <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="IBM Plex Sans"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF393939"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FF393939"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color rgb="FF393939"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF393939"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    </dxf>
+    <dxf>
       <border>
         <top style="medium">
           <color rgb="FF393939"/>
@@ -2687,6 +2647,46 @@
         <patternFill>
           <fgColor indexed="64"/>
           <bgColor rgb="FF393939"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4024,78 +4024,78 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{02B1C38A-880B-4A79-8474-F476756612FF}" name="MalwareAndTools8" displayName="MalwareAndTools8" ref="A1:I10" totalsRowCount="1" totalsRowDxfId="62" totalsRowBorderDxfId="61" headerRowCellStyle="Normal" dataCellStyle="Normal" totalsRowCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{02B1C38A-880B-4A79-8474-F476756612FF}" name="MalwareAndTools8" displayName="MalwareAndTools8" ref="A1:I10" totalsRowCount="1" totalsRowDxfId="58" totalsRowBorderDxfId="57" headerRowCellStyle="Normal" dataCellStyle="Normal" totalsRowCellStyle="Normal">
   <autoFilter ref="A1:I9" xr:uid="{02B1C38A-880B-4A79-8474-F476756612FF}"/>
   <tableColumns count="9">
-    <tableColumn id="18" xr3:uid="{8FADC744-89AA-4949-B676-7202B3ED5295}" name="Host" totalsRowLabel="Insert Additional Data Above This Row (CTRL SHIFT +)" dataDxfId="60" totalsRowDxfId="59" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{D089DC8B-2B69-41EB-94E3-5812120BB326}" name="Windows Log Source" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{FD93A389-751D-46AE-8B2E-01557E04FA87}" name="Start Date" totalsRowDxfId="56" dataCellStyle="Normal"/>
-    <tableColumn id="28" xr3:uid="{4732EA93-CE69-4C0F-9DE5-4676A5F68CB7}" name="End Date" totalsRowDxfId="55" dataCellStyle="Normal"/>
-    <tableColumn id="24" xr3:uid="{174767FC-7F43-4FDD-8883-30F88356A9D1}" name="RecordID_f" totalsRowDxfId="54" dataCellStyle="Normal"/>
-    <tableColumn id="25" xr3:uid="{0A94A076-F50E-471B-9996-BAD70D52F2B6}" name="RecordID_l" totalsRowDxfId="53" dataCellStyle="Normal"/>
-    <tableColumn id="29" xr3:uid="{FB122FB7-9AFE-4F09-AFC4-D8FF0139D13B}" name="Estimated_count" totalsRowDxfId="52" dataCellStyle="Normal"/>
-    <tableColumn id="26" xr3:uid="{FC8E4E9E-1424-4F59-B062-EB03AB7860FC}" name="File" totalsRowDxfId="51" dataCellStyle="Normal"/>
-    <tableColumn id="27" xr3:uid="{EC0D34B2-786B-4D48-8282-BF91A31E1F3C}" name="Interesting" totalsRowDxfId="50" dataCellStyle="Normal"/>
+    <tableColumn id="18" xr3:uid="{8FADC744-89AA-4949-B676-7202B3ED5295}" name="Host" totalsRowLabel="Insert Additional Data Above This Row (CTRL SHIFT +)" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{D089DC8B-2B69-41EB-94E3-5812120BB326}" name="Windows Log Source" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{FD93A389-751D-46AE-8B2E-01557E04FA87}" name="Start Date" totalsRowDxfId="52" dataCellStyle="Normal"/>
+    <tableColumn id="28" xr3:uid="{4732EA93-CE69-4C0F-9DE5-4676A5F68CB7}" name="End Date" totalsRowDxfId="51" dataCellStyle="Normal"/>
+    <tableColumn id="24" xr3:uid="{174767FC-7F43-4FDD-8883-30F88356A9D1}" name="RecordID_f" totalsRowDxfId="50" dataCellStyle="Normal"/>
+    <tableColumn id="25" xr3:uid="{0A94A076-F50E-471B-9996-BAD70D52F2B6}" name="RecordID_l" totalsRowDxfId="49" dataCellStyle="Normal"/>
+    <tableColumn id="29" xr3:uid="{FB122FB7-9AFE-4F09-AFC4-D8FF0139D13B}" name="Estimated_count" totalsRowDxfId="48" dataCellStyle="Normal"/>
+    <tableColumn id="26" xr3:uid="{FC8E4E9E-1424-4F59-B062-EB03AB7860FC}" name="File" totalsRowDxfId="47" dataCellStyle="Normal"/>
+    <tableColumn id="27" xr3:uid="{EC0D34B2-786B-4D48-8282-BF91A31E1F3C}" name="Interesting" totalsRowDxfId="46" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="IBM Security Table (Light)" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DDFB3B19-DC2F-479F-A8B1-707B23191B53}" name="MalwareAndTools" displayName="MalwareAndTools" ref="A1:L29" totalsRowCount="1" totalsRowDxfId="49" totalsRowBorderDxfId="48" headerRowCellStyle="Normal" dataCellStyle="Normal" totalsRowCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DDFB3B19-DC2F-479F-A8B1-707B23191B53}" name="MalwareAndTools" displayName="MalwareAndTools" ref="A1:L29" totalsRowCount="1" totalsRowDxfId="41" totalsRowBorderDxfId="40" headerRowCellStyle="Normal" dataCellStyle="Normal" totalsRowCellStyle="Normal">
   <autoFilter ref="A1:L28" xr:uid="{DDFB3B19-DC2F-479F-A8B1-707B23191B53}"/>
   <tableColumns count="12">
-    <tableColumn id="18" xr3:uid="{FBB27A98-ACE9-48B2-B815-1198BB21689E}" name="File Name" totalsRowLabel="Insert Additional Data Above This Row (CTRL SHIFT +)" dataDxfId="47" totalsRowDxfId="46" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{598A4E02-EE3D-47C3-A878-982124F4F351}" name="Date Added" dataDxfId="45" totalsRowDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{500CBEE5-801A-465F-8D06-FF5FE48B9CE0}" name="Added by" totalsRowDxfId="43" dataCellStyle="Normal"/>
-    <tableColumn id="28" xr3:uid="{BFBA34EE-81CF-4B06-9769-D34A6BAC0FF4}" name="Type" totalsRowDxfId="42" dataCellStyle="Normal"/>
-    <tableColumn id="24" xr3:uid="{B93D4DEF-F204-4EA5-BEE3-754A37787194}" name="Sample Status" totalsRowDxfId="41" dataCellStyle="Normal"/>
-    <tableColumn id="25" xr3:uid="{19C6B6D3-1BD2-41A0-A8BD-EBBB2EEC5EBF}" name="RE ticket number" totalsRowDxfId="40" dataCellStyle="Normal"/>
-    <tableColumn id="29" xr3:uid="{658E95D3-9DAE-4FAC-B812-D7A5D3C56397}" name="Description" totalsRowDxfId="39" dataCellStyle="Normal"/>
-    <tableColumn id="26" xr3:uid="{B1EE4F36-7A18-4837-AFC0-71AC92B937CE}" name="MD5" totalsRowDxfId="38" dataCellStyle="Normal"/>
-    <tableColumn id="27" xr3:uid="{E3E06F7C-254B-492D-8F79-72253B565734}" name="SHA1" totalsRowDxfId="37" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{33DFAF81-1D69-4F9C-8B87-E98981337EDF}" name="SHA256" totalsRowDxfId="36"/>
-    <tableColumn id="1" xr3:uid="{7848FBA0-E5CF-4171-8749-9A6C9494107F}" name="Full Paths" totalsRowDxfId="35"/>
-    <tableColumn id="16" xr3:uid="{9FDAEE0C-240D-4CE5-9EAE-CF0AEE2CB29A}" name="System(s)" totalsRowDxfId="34" dataCellStyle="Normal"/>
+    <tableColumn id="18" xr3:uid="{FBB27A98-ACE9-48B2-B815-1198BB21689E}" name="File Name" totalsRowLabel="Insert Additional Data Above This Row (CTRL SHIFT +)" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{598A4E02-EE3D-47C3-A878-982124F4F351}" name="Date Added" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{500CBEE5-801A-465F-8D06-FF5FE48B9CE0}" name="Added by" totalsRowDxfId="35" dataCellStyle="Normal"/>
+    <tableColumn id="28" xr3:uid="{BFBA34EE-81CF-4B06-9769-D34A6BAC0FF4}" name="Type" totalsRowDxfId="34" dataCellStyle="Normal"/>
+    <tableColumn id="24" xr3:uid="{B93D4DEF-F204-4EA5-BEE3-754A37787194}" name="Sample Status" totalsRowDxfId="33" dataCellStyle="Normal"/>
+    <tableColumn id="25" xr3:uid="{19C6B6D3-1BD2-41A0-A8BD-EBBB2EEC5EBF}" name="RE ticket number" totalsRowDxfId="32" dataCellStyle="Normal"/>
+    <tableColumn id="29" xr3:uid="{658E95D3-9DAE-4FAC-B812-D7A5D3C56397}" name="Description" totalsRowDxfId="31" dataCellStyle="Normal"/>
+    <tableColumn id="26" xr3:uid="{B1EE4F36-7A18-4837-AFC0-71AC92B937CE}" name="MD5" totalsRowDxfId="30" dataCellStyle="Normal"/>
+    <tableColumn id="27" xr3:uid="{E3E06F7C-254B-492D-8F79-72253B565734}" name="SHA1" totalsRowDxfId="29" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{33DFAF81-1D69-4F9C-8B87-E98981337EDF}" name="SHA256" totalsRowDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{7848FBA0-E5CF-4171-8749-9A6C9494107F}" name="Full Paths" totalsRowDxfId="27"/>
+    <tableColumn id="16" xr3:uid="{9FDAEE0C-240D-4CE5-9EAE-CF0AEE2CB29A}" name="System(s)" totalsRowDxfId="26" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="IBM Security Table (Light)" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6153047F-B2D3-4957-BB00-5CF62C7EDD7E}" name="Timeline" displayName="Timeline" ref="A1:O35" totalsRowCount="1" totalsRowDxfId="33" totalsRowBorderDxfId="32" headerRowCellStyle="Normal" dataCellStyle="Normal" totalsRowCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6153047F-B2D3-4957-BB00-5CF62C7EDD7E}" name="Timeline" displayName="Timeline" ref="A1:O35" totalsRowCount="1" totalsRowDxfId="24" totalsRowBorderDxfId="23" headerRowCellStyle="Normal" dataCellStyle="Normal" totalsRowCellStyle="Normal">
   <autoFilter ref="A1:O34" xr:uid="{6153047F-B2D3-4957-BB00-5CF62C7EDD7E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O18600">
     <sortCondition ref="A1:A18600"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{0882F27E-39DB-42B5-B735-E0B181BB0098}" name="Date/Time (UTC)" totalsRowLabel="Insert Additional Data Above This Row (CTRL SHIFT +)" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{3684B950-12B1-42C1-8BBB-4CF6AB1288DC}" name="Notable Event" totalsRowDxfId="13" dataCellStyle="Normal"/>
-    <tableColumn id="15" xr3:uid="{90EFFF99-CB7F-49EB-950E-92190A2D4F8F}" name="Added by" totalsRowDxfId="12" dataCellStyle="Normal"/>
-    <tableColumn id="14" xr3:uid="{B4A1238F-5BAB-4A91-AC83-ED08EAFD2EE1}" name="Hostname (from evidence)" totalsRowDxfId="11" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{1E2BD23F-8A9D-480C-878C-556A79B6DAE4}" name="Src hostname" totalsRowDxfId="10" dataCellStyle="Normal"/>
-    <tableColumn id="18" xr3:uid="{E5360F5F-06C8-4158-90A4-5DFBA484AB9E}" name="Src Account" totalsRowDxfId="9" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{435E89CE-266A-4D3B-8F23-16F0E30D7DC8}" name="Dst hostname/IP" totalsRowDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="13" xr3:uid="{A7F25F15-8167-41E7-9869-FD77CFA1A301}" name="Dst Account" totalsRowDxfId="7" dataCellStyle="Normal"/>
-    <tableColumn id="19" xr3:uid="{B9440BD7-1631-4B2C-89E8-9ED3B015A9AE}" name="Artefact Source" totalsRowDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{11B445C2-6A3B-46D1-BF18-60AB707028C1}" name="Artefact Type" totalsRowDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{0218822C-7120-4003-9ED6-974834DF8584}" name="Artefact Details" totalsRowDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{20922C6E-EFF1-4A8A-A171-F1C3750A1BED}" name="Description" totalsRowDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{B1C4B091-7710-4DF0-9606-6BBC5AED7203}" name="Notes" totalsRowDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{1C77BAE5-812E-4145-81AC-A712104374E3}" name="ATT&amp;CK Technique" totalsRowDxfId="1" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{B50B7E3E-26E7-4C1A-8895-B40A445994E1}" name="ATT&amp;CK Subtechnique" totalsRowDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{0882F27E-39DB-42B5-B735-E0B181BB0098}" name="Date/Time (UTC)" totalsRowLabel="Insert Additional Data Above This Row (CTRL SHIFT +)" dataDxfId="22" totalsRowDxfId="21" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{3684B950-12B1-42C1-8BBB-4CF6AB1288DC}" name="Notable Event" totalsRowDxfId="20" dataCellStyle="Normal"/>
+    <tableColumn id="15" xr3:uid="{90EFFF99-CB7F-49EB-950E-92190A2D4F8F}" name="Added by" totalsRowDxfId="19" dataCellStyle="Normal"/>
+    <tableColumn id="14" xr3:uid="{B4A1238F-5BAB-4A91-AC83-ED08EAFD2EE1}" name="Hostname (from evidence)" totalsRowDxfId="18" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{1E2BD23F-8A9D-480C-878C-556A79B6DAE4}" name="Src hostname" totalsRowDxfId="17" dataCellStyle="Normal"/>
+    <tableColumn id="18" xr3:uid="{E5360F5F-06C8-4158-90A4-5DFBA484AB9E}" name="Src Account" totalsRowDxfId="16" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{435E89CE-266A-4D3B-8F23-16F0E30D7DC8}" name="Dst hostname/IP" totalsRowDxfId="15" dataCellStyle="Normal"/>
+    <tableColumn id="13" xr3:uid="{A7F25F15-8167-41E7-9869-FD77CFA1A301}" name="Dst Account" totalsRowDxfId="14" dataCellStyle="Normal"/>
+    <tableColumn id="19" xr3:uid="{B9440BD7-1631-4B2C-89E8-9ED3B015A9AE}" name="Artefact Source" totalsRowDxfId="13"/>
+    <tableColumn id="16" xr3:uid="{11B445C2-6A3B-46D1-BF18-60AB707028C1}" name="Artefact Type" totalsRowDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{0218822C-7120-4003-9ED6-974834DF8584}" name="Artefact Details" totalsRowDxfId="11" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{20922C6E-EFF1-4A8A-A171-F1C3750A1BED}" name="Description" totalsRowDxfId="10" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{B1C4B091-7710-4DF0-9606-6BBC5AED7203}" name="Notes" totalsRowDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{1C77BAE5-812E-4145-81AC-A712104374E3}" name="ATT&amp;CK Technique" totalsRowDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{B50B7E3E-26E7-4C1A-8895-B40A445994E1}" name="ATT&amp;CK Subtechnique" totalsRowDxfId="7" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="IBM Security Table (Light)" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="A1:C20" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="30" tableBorderDxfId="29" totalsRowBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="A1:C20" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A1:C20" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Username" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="SID" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{CAF9F4C9-AB97-4848-99E5-F16CAFA85CAD}" name="LastWrite Value" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Username" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="SID" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{CAF9F4C9-AB97-4848-99E5-F16CAFA85CAD}" name="LastWrite Value" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4462,19 +4462,19 @@
       <c r="A12" s="12"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="54"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="271.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="52"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="14" t="s">
         <v>30</v>
       </c>
@@ -4585,16 +4585,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E9">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="1" operator="equal">
       <formula>"Unknown"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="2" operator="equal">
       <formula>"Unavailable"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="3" operator="equal">
       <formula>"Available (not yet on Box)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="4" operator="equal">
       <formula>"Extracted to Box"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4824,16 +4824,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E28">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
       <formula>"Unknown"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
       <formula>"Unavailable"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="3" operator="equal">
       <formula>"Available (not yet on Box)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="4" operator="equal">
       <formula>"Extracted to Box"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4875,7 +4875,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5674,7 +5674,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="O2:O34">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="25" priority="1">
       <formula>AND(ISBLANK($N2), NOT(ISBLANK($O2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5852,10 +5852,10 @@
       <c r="C20" s="6"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="56"/>
+      <c r="B24" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5947,7 +5947,7 @@
       <c r="A3" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="51" t="s">
         <v>141</v>
       </c>
       <c r="C3" s="42" t="s">
@@ -5956,14 +5956,14 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
-      <c r="B4" s="58"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="45" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="33"/>
-      <c r="B5" s="59"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="35"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
